--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject37.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject37.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -146,7 +146,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="0">
         <v>0</v>
@@ -158,7 +158,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
@@ -191,7 +191,7 @@
         <v>0</v>
       </c>
       <c r="V1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W1" s="0">
         <v>0</v>
@@ -278,10 +278,10 @@
         <v>0</v>
       </c>
       <c r="AY1" s="0">
-        <v>0</v>
+        <v>0.79133499192640966</v>
       </c>
       <c r="AZ1" s="0">
-        <v>0</v>
+        <v>0.51515027765975829</v>
       </c>
       <c r="BA1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.97308299850772439</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -349,13 +349,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>0</v>
+        <v>0.98866742043488387</v>
       </c>
       <c r="I2" s="0">
         <v>0</v>
@@ -370,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="0">
-        <v>0</v>
+        <v>0.75790312414866867</v>
       </c>
       <c r="N2" s="0">
         <v>0</v>
@@ -403,13 +403,13 @@
         <v>0</v>
       </c>
       <c r="X2" s="0">
-        <v>0</v>
+        <v>0.65021569608101415</v>
       </c>
       <c r="Y2" s="0">
         <v>0</v>
       </c>
       <c r="Z2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="AL2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="0">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="0">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>0</v>
+        <v>0.71090425795412071</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>0</v>
+        <v>0.74067766668227986</v>
       </c>
       <c r="V3" s="0">
-        <v>0</v>
+        <v>0.50788694301165904</v>
       </c>
       <c r="W3" s="0">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="0">
-        <v>0</v>
+        <v>0.58571292788945506</v>
       </c>
       <c r="AD3" s="0">
         <v>0</v>
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="BE3" s="0">
-        <v>0</v>
+        <v>0.8802620143771489</v>
       </c>
       <c r="BF3" s="0">
         <v>0</v>
       </c>
       <c r="BG3" s="0">
-        <v>0</v>
+        <v>0.86012159072677152</v>
       </c>
       <c r="BH3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="0">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="0">
-        <v>1</v>
+        <v>0.54049024279763591</v>
       </c>
       <c r="AB4" s="0">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="0">
-        <v>0</v>
+        <v>0.91854408644360697</v>
       </c>
       <c r="AI4" s="0">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="0">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="0">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="0">
-        <v>0</v>
+        <v>0.87370362260992951</v>
       </c>
       <c r="Q5" s="0">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="0">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="0">
-        <v>0</v>
+        <v>0.74423908131630756</v>
       </c>
       <c r="AC5" s="0">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="0">
-        <v>0</v>
+        <v>0.98378699509266498</v>
       </c>
       <c r="AG5" s="0">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="AY5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="0">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>0</v>
+        <v>0.89218918946013315</v>
       </c>
       <c r="K6" s="0">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="0">
         <v>0</v>
@@ -1245,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="AD6" s="0">
-        <v>0</v>
+        <v>0.80807428399445913</v>
       </c>
       <c r="AE6" s="0">
         <v>0</v>
       </c>
       <c r="AF6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="0">
         <v>0</v>
       </c>
       <c r="AH6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="0">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="BA6" s="0">
-        <v>0</v>
+        <v>0.83023505081825255</v>
       </c>
       <c r="BB6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="0">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BO6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="0">
         <v>0</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="0">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="0">
-        <v>0</v>
+        <v>0.63416178958682323</v>
       </c>
       <c r="AD7" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0</v>
+        <v>0.65035942467808339</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="AY7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="0">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="0">
-        <v>0</v>
+        <v>0.70338701096039591</v>
       </c>
       <c r="BJ7" s="0">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>0.90144159825626113</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>0</v>
+        <v>0.87487384376903199</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AM8" s="0">
-        <v>0</v>
+        <v>0.75430156206977128</v>
       </c>
       <c r="AN8" s="0">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="0">
-        <v>0</v>
+        <v>0.83243935132915969</v>
       </c>
       <c r="AU8" s="0">
         <v>0</v>
@@ -1714,16 +1714,16 @@
         <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="0">
         <v>0</v>
       </c>
       <c r="AZ8" s="0">
-        <v>0</v>
+        <v>0.79936663304003064</v>
       </c>
       <c r="BA8" s="0">
         <v>0</v>
@@ -1735,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="BD8" s="0">
-        <v>0</v>
+        <v>0.74073456049553021</v>
       </c>
       <c r="BE8" s="0">
         <v>0</v>
       </c>
       <c r="BF8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="0">
         <v>0</v>
       </c>
       <c r="BH8" s="0">
-        <v>0</v>
+        <v>0.95596229295260127</v>
       </c>
       <c r="BI8" s="0">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>0</v>
+        <v>0.87952289069647205</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
@@ -1803,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
       </c>
       <c r="L9" s="0">
-        <v>0</v>
+        <v>0.5890466313842182</v>
       </c>
       <c r="M9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="0">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="BG9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="0">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="BP9" s="0">
-        <v>0</v>
+        <v>0.76845952830329023</v>
       </c>
     </row>
     <row r="10">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>0</v>
+        <v>0.77493018438338179</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
@@ -2006,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.8533170113966343</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.95180313349295487</v>
       </c>
       <c r="M10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="0">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="0">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="0">
-        <v>0</v>
+        <v>0.80945914349313608</v>
       </c>
       <c r="AC10" s="0">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="0">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="0">
-        <v>0</v>
+        <v>0.92255691340705981</v>
       </c>
       <c r="AS10" s="0">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AZ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="0">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="BH10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="0">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.6957010439078426</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="0">
         <v>0</v>
@@ -2260,13 +2260,13 @@
         <v>0</v>
       </c>
       <c r="Y11" s="0">
-        <v>0</v>
+        <v>0.85615134769784951</v>
       </c>
       <c r="Z11" s="0">
         <v>0</v>
       </c>
       <c r="AA11" s="0">
-        <v>0</v>
+        <v>0.96988331952710338</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="0">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0</v>
+        <v>0.93569759700572819</v>
       </c>
       <c r="AK11" s="0">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="BB11" s="0">
-        <v>0</v>
+        <v>0.93001503577989653</v>
       </c>
       <c r="BC11" s="0">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="0">
-        <v>0</v>
+        <v>0.62397602413978204</v>
       </c>
       <c r="BN11" s="0">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="0">
-        <v>0</v>
+        <v>0.57626598730876211</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.80031371041953148</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
       </c>
       <c r="AD12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="0">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="0">
-        <v>0</v>
+        <v>0.67183446747830033</v>
       </c>
       <c r="AJ12" s="0">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="0">
-        <v>0</v>
+        <v>0.63823088350153556</v>
       </c>
       <c r="BD12" s="0">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
+        <v>0.71599458836683338</v>
       </c>
       <c r="C13" s="0">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="0">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.6275820668194878</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="0">
-        <v>0</v>
+        <v>0.50640721622786811</v>
       </c>
       <c r="V13" s="0">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="0">
-        <v>0</v>
+        <v>0.53525953508063273</v>
       </c>
       <c r="AA13" s="0">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="0">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="0">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="0">
-        <v>0</v>
+        <v>0.56902914721682318</v>
       </c>
       <c r="BC13" s="0">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="BN13" s="0">
-        <v>0</v>
+        <v>0.99136761734219359</v>
       </c>
       <c r="BO13" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>0</v>
+        <v>0.850780087249428</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="0">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AV14" s="0">
-        <v>0</v>
+        <v>0.67607888759966461</v>
       </c>
       <c r="AW14" s="0">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="BE14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="0">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="BO14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.81696582929235317</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="0">
-        <v>0</v>
+        <v>0.7803940299647476</v>
       </c>
       <c r="S15" s="0">
         <v>0</v>
@@ -3102,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="AE15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="0">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="AW15" s="0">
-        <v>0</v>
+        <v>0.89342998409985663</v>
       </c>
       <c r="AX15" s="0">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="BB15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="0">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="BE15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="0">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="BH15" s="0">
-        <v>0</v>
+        <v>0.61346668644432367</v>
       </c>
       <c r="BI15" s="0">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="0">
-        <v>0</v>
+        <v>0.76735092435214391</v>
       </c>
       <c r="F16" s="0">
         <v>0</v>
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="AP16" s="0">
-        <v>0</v>
+        <v>0.80998945051751825</v>
       </c>
       <c r="AQ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="0">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AY16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="0">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="BB16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="0">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="BG16" s="0">
-        <v>0</v>
+        <v>0.75885549024834387</v>
       </c>
       <c r="BH16" s="0">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="BL16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM16" s="0">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="0">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="0">
-        <v>0</v>
+        <v>0.65675635802740162</v>
       </c>
       <c r="AD17" s="0">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="AG17" s="0">
-        <v>0</v>
+        <v>0.95029014668267497</v>
       </c>
       <c r="AH17" s="0">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AM17" s="0">
-        <v>0</v>
+        <v>0.77042656775423524</v>
       </c>
       <c r="AN17" s="0">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>0</v>
+        <v>0.50151948829811555</v>
       </c>
       <c r="BD17" s="0">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ17" s="0">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="0">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="0">
         <v>0</v>
@@ -3672,25 +3672,25 @@
         <v>0</v>
       </c>
       <c r="O18" s="0">
-        <v>0</v>
+        <v>0.94020839920002841</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.8566475988909692</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.56875470455729837</v>
       </c>
       <c r="U18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="0">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="0">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="0">
-        <v>0</v>
+        <v>0.54721481466085775</v>
       </c>
       <c r="BO18" s="0">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="0">
         <v>0</v>
@@ -3860,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
       </c>
       <c r="K19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.81396938199718738</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="0">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="0">
-        <v>0</v>
+        <v>0.97560575494342705</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AN19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="0">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="0">
-        <v>0</v>
+        <v>0.92267873045500193</v>
       </c>
       <c r="AV19" s="0">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="AZ19" s="0">
-        <v>0</v>
+        <v>0.7811934422113922</v>
       </c>
       <c r="BA19" s="0">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.71092829120980283</v>
       </c>
       <c r="S20" s="0">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0</v>
+        <v>0.95980434877899001</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="0">
-        <v>0</v>
+        <v>0.95866711372495905</v>
       </c>
       <c r="AA20" s="0">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="0">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="AY20" s="0">
-        <v>0</v>
+        <v>0.66001472512690196</v>
       </c>
       <c r="AZ20" s="0">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="BD20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="0">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="0">
-        <v>0</v>
+        <v>0.78995708406664744</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
@@ -4284,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="0">
-        <v>0</v>
+        <v>0.52907748120223286</v>
       </c>
       <c r="N21" s="0">
-        <v>0</v>
+        <v>0.83180837671115704</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4299,19 +4299,19 @@
         <v>0</v>
       </c>
       <c r="R21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="0">
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0</v>
+        <v>0.66714012586832805</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="0">
-        <v>0</v>
+        <v>0.95164203460908436</v>
       </c>
       <c r="AC21" s="0">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="0">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="0">
-        <v>0</v>
+        <v>0.75021928284243422</v>
       </c>
       <c r="AK21" s="0">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="AU21" s="0">
-        <v>0</v>
+        <v>0.66435767501048448</v>
       </c>
       <c r="AV21" s="0">
         <v>0</v>
@@ -4454,13 +4454,13 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="0">
         <v>0</v>
       </c>
       <c r="C22" s="0">
-        <v>0</v>
+        <v>0.95695139180798172</v>
       </c>
       <c r="D22" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="0">
-        <v>0</v>
+        <v>0.84035312651736704</v>
       </c>
       <c r="AA22" s="0">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>0</v>
+        <v>0.99527958205171063</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AU22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="0">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="0">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.54619133012551779</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>1</v>
+        <v>0.77462765285549873</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="0">
-        <v>0</v>
+        <v>0.99889491068425218</v>
       </c>
       <c r="C24" s="0">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="0">
         <v>0</v>
@@ -4932,19 +4932,19 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.61069274801928164</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
       </c>
       <c r="AA24" s="0">
-        <v>0</v>
+        <v>0.59016807107829661</v>
       </c>
       <c r="AB24" s="0">
         <v>0</v>
@@ -4998,13 +4998,13 @@
         <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
       </c>
       <c r="AU24" s="0">
-        <v>0</v>
+        <v>0.56822626670333598</v>
       </c>
       <c r="AV24" s="0">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="0">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="0">
-        <v>0</v>
+        <v>0.68106155363258325</v>
       </c>
       <c r="L25" s="0">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="0">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="0">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="AG25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="0">
         <v>0</v>
@@ -5183,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>0</v>
+        <v>0.56991289566804659</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
       </c>
       <c r="AN25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="0">
         <v>0</v>
@@ -5216,10 +5216,10 @@
         <v>0</v>
       </c>
       <c r="AW25" s="0">
-        <v>0</v>
+        <v>0.96240729256836643</v>
       </c>
       <c r="AX25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="0">
-        <v>0</v>
+        <v>0.8517583890775775</v>
       </c>
       <c r="N26" s="0">
         <v>0</v>
@@ -5335,13 +5335,13 @@
         <v>0</v>
       </c>
       <c r="T26" s="0">
-        <v>0</v>
+        <v>0.82594439129733366</v>
       </c>
       <c r="U26" s="0">
         <v>0</v>
       </c>
       <c r="V26" s="0">
-        <v>0</v>
+        <v>0.63609202947092869</v>
       </c>
       <c r="W26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5368,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="AE26" s="0">
-        <v>0</v>
+        <v>0.65057221253778086</v>
       </c>
       <c r="AF26" s="0">
         <v>0</v>
       </c>
       <c r="AG26" s="0">
-        <v>0</v>
+        <v>0.61110574690663411</v>
       </c>
       <c r="AH26" s="0">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="AX26" s="0">
-        <v>0</v>
+        <v>0.83717592336834712</v>
       </c>
       <c r="AY26" s="0">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="BF26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG26" s="0">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL26" s="0">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="0">
-        <v>1</v>
+        <v>0.72271691930243698</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>0</v>
+        <v>0.51464714047254967</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="0">
-        <v>0</v>
+        <v>0.89949725510222434</v>
       </c>
       <c r="Y27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.94586637267422513</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="0">
-        <v>0</v>
+        <v>0.97146059160435971</v>
       </c>
       <c r="AJ27" s="0">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="AM27" s="0">
-        <v>0</v>
+        <v>0.99394970621820122</v>
       </c>
       <c r="AN27" s="0">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="AT27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="0">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>1</v>
+        <v>0.58844396740769611</v>
       </c>
       <c r="BN27" s="0">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="0">
-        <v>0</v>
+        <v>0.50447960498304023</v>
       </c>
       <c r="F28" s="0">
         <v>0</v>
@@ -5717,13 +5717,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="0">
-        <v>0</v>
+        <v>0.81491884148150961</v>
       </c>
       <c r="K28" s="0">
         <v>0</v>
       </c>
       <c r="L28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="0">
         <v>0</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="0">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="0">
-        <v>0</v>
+        <v>0.95273110332827771</v>
       </c>
       <c r="V28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="0">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="0">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="0">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="0">
-        <v>0</v>
+        <v>0.5629537349408229</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="0">
-        <v>0</v>
+        <v>0.6053785657354549</v>
       </c>
       <c r="H29" s="0">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="0">
-        <v>0</v>
+        <v>0.53932308568987697</v>
       </c>
       <c r="R29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.76861321477454703</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AW29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="0">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="0">
-        <v>0</v>
+        <v>0.90126574553090744</v>
       </c>
       <c r="BA29" s="0">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="0">
-        <v>0</v>
+        <v>0.60207411012137591</v>
       </c>
       <c r="BF29" s="0">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP29" s="0">
         <v>0</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="0">
-        <v>0</v>
+        <v>0.89809512901822797</v>
       </c>
       <c r="G30" s="0">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="0">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="0">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>0</v>
+        <v>0.68535363462874233</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="AO30" s="0">
-        <v>0</v>
+        <v>0.88606820189602264</v>
       </c>
       <c r="AP30" s="0">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="AW30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="0">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="0">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="0">
-        <v>0</v>
+        <v>0.69790161714338539</v>
       </c>
       <c r="AA31" s="0">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>0</v>
+        <v>0.61111965050749306</v>
       </c>
       <c r="AY31" s="0">
         <v>0</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="BI31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ31" s="0">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="BL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM31" s="0">
         <v>0</v>
@@ -6526,16 +6526,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="0">
-        <v>0</v>
+        <v>0.99599330126479091</v>
       </c>
       <c r="F32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>0</v>
+        <v>0.76736916871103622</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="0">
-        <v>0</v>
+        <v>0.959996154898765</v>
       </c>
       <c r="T32" s="0">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="0">
-        <v>0</v>
+        <v>0.81884495906143806</v>
       </c>
       <c r="AK32" s="0">
         <v>0</v>
@@ -6631,13 +6631,13 @@
         <v>0</v>
       </c>
       <c r="AN32" s="0">
-        <v>0</v>
+        <v>0.62499468687856241</v>
       </c>
       <c r="AO32" s="0">
         <v>0</v>
       </c>
       <c r="AP32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="0">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0</v>
+        <v>0.59485252387707366</v>
       </c>
       <c r="R33" s="0">
         <v>0</v>
@@ -6792,10 +6792,10 @@
         <v>0</v>
       </c>
       <c r="Y33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="0">
-        <v>0</v>
+        <v>0.94690915404317733</v>
       </c>
       <c r="AA33" s="0">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="0">
-        <v>0</v>
+        <v>0.51579298917022398</v>
       </c>
       <c r="AT33" s="0">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="0">
         <v>0</v>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="BP33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6935,13 +6935,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="0">
-        <v>0</v>
+        <v>0.92609362951465102</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
       </c>
       <c r="F34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="0">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="BD34" s="0">
-        <v>0</v>
+        <v>0.64856203640512766</v>
       </c>
       <c r="BE34" s="0">
         <v>0</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="BP34" s="0">
-        <v>0</v>
+        <v>0.88666331915756835</v>
       </c>
     </row>
     <row r="35">
@@ -7165,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>0</v>
+        <v>0.7079044096489886</v>
       </c>
       <c r="M35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="0">
         <v>0</v>
@@ -7210,10 +7210,10 @@
         <v>0</v>
       </c>
       <c r="AA35" s="0">
-        <v>0</v>
+        <v>0.77991933101663014</v>
       </c>
       <c r="AB35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="AW35" s="0">
-        <v>0</v>
+        <v>0.62043412535901776</v>
       </c>
       <c r="AX35" s="0">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>0</v>
+        <v>0.83453237212162712</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -7395,10 +7395,10 @@
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="0">
-        <v>0</v>
+        <v>0.8926583479135014</v>
       </c>
       <c r="V36" s="0">
         <v>0</v>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="AF36" s="0">
-        <v>0</v>
+        <v>0.98779170890950807</v>
       </c>
       <c r="AG36" s="0">
         <v>0</v>
@@ -7479,19 +7479,19 @@
         <v>0</v>
       </c>
       <c r="AV36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW36" s="0">
         <v>0</v>
       </c>
       <c r="AX36" s="0">
-        <v>1</v>
+        <v>0.68411407960405868</v>
       </c>
       <c r="AY36" s="0">
         <v>0</v>
       </c>
       <c r="AZ36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="0">
         <v>0</v>
@@ -7521,13 +7521,13 @@
         <v>0</v>
       </c>
       <c r="BJ36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK36" s="0">
         <v>0</v>
       </c>
       <c r="BL36" s="0">
-        <v>0</v>
+        <v>0.82184063916314121</v>
       </c>
       <c r="BM36" s="0">
         <v>0</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.55044504790534388</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.84547015962020899</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="BD37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE37" s="0">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="BI37" s="0">
-        <v>0</v>
+        <v>0.90990936217959906</v>
       </c>
       <c r="BJ37" s="0">
         <v>0</v>
@@ -7753,13 +7753,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0">
         <v>0</v>
       </c>
       <c r="D38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="0">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="0">
-        <v>0</v>
+        <v>0.57534797062848986</v>
       </c>
       <c r="Z38" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.95276442407505357</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>0</v>
+        <v>0.9497874598213667</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AW38" s="0">
-        <v>0</v>
+        <v>0.73155056848378541</v>
       </c>
       <c r="AX38" s="0">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF38" s="0">
         <v>0</v>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="0">
-        <v>0</v>
+        <v>0.5181268815762663</v>
       </c>
       <c r="I39" s="0">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0</v>
+        <v>0.62246529726656041</v>
       </c>
       <c r="R39" s="0">
         <v>0</v>
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="0">
-        <v>0</v>
+        <v>0.69466009354175939</v>
       </c>
       <c r="AB39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.94684249892323802</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="AR39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="0">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="BF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG39" s="0">
         <v>0</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" s="0">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="0">
-        <v>0</v>
+        <v>0.85446407120367129</v>
       </c>
       <c r="AG40" s="0">
         <v>0</v>
@@ -8306,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>0</v>
+        <v>0.50432221585173564</v>
       </c>
       <c r="AX40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="BF40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="0">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="BI40" s="0">
-        <v>0</v>
+        <v>0.81980113646151098</v>
       </c>
       <c r="BJ40" s="0">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="0">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="AD41" s="0">
-        <v>0</v>
+        <v>0.82398065237734275</v>
       </c>
       <c r="AE41" s="0">
         <v>0</v>
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="BC41" s="0">
-        <v>0</v>
+        <v>0.78542549467278722</v>
       </c>
       <c r="BD41" s="0">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="BH41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI41" s="0">
         <v>0</v>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="BK41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL41" s="0">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="0">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="0">
-        <v>0</v>
+        <v>0.96641854285614259</v>
       </c>
       <c r="Q42" s="0">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="0">
-        <v>0</v>
+        <v>0.57887888512312602</v>
       </c>
       <c r="AM42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8760,13 +8760,13 @@
         <v>0</v>
       </c>
       <c r="BK42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL42" s="0">
         <v>0</v>
       </c>
       <c r="BM42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN42" s="0">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="BP42" s="0">
-        <v>0</v>
+        <v>0.97406482570285891</v>
       </c>
     </row>
     <row r="43">
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>0</v>
+        <v>0.93741573282550417</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.6211197200875429</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>0</v>
+        <v>0.61695731703464307</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="0">
-        <v>0</v>
+        <v>0.78148526567719023</v>
       </c>
       <c r="K44" s="0">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="AM44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN44" s="0">
         <v>0</v>
@@ -9109,10 +9109,10 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.79358415958761186</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9154,10 +9154,10 @@
         <v>0</v>
       </c>
       <c r="BE44" s="0">
-        <v>0</v>
+        <v>0.81177606376313816</v>
       </c>
       <c r="BF44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG44" s="0">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="BP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>0</v>
+        <v>0.51521631092724762</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="0">
-        <v>0</v>
+        <v>0.99589378122277117</v>
       </c>
       <c r="BA45" s="0">
         <v>0</v>
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="BL45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM45" s="0">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="BO45" s="0">
-        <v>0</v>
+        <v>0.80840348604343326</v>
       </c>
       <c r="BP45" s="0">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="0">
-        <v>0</v>
+        <v>0.6155577840013795</v>
       </c>
       <c r="I46" s="0">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="AA46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9545,13 +9545,13 @@
         <v>0</v>
       </c>
       <c r="AX46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="0">
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>0</v>
+        <v>0.58271043733095595</v>
       </c>
       <c r="BA46" s="0">
         <v>0</v>
@@ -9563,13 +9563,13 @@
         <v>0</v>
       </c>
       <c r="BD46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE46" s="0">
         <v>0</v>
       </c>
       <c r="BF46" s="0">
-        <v>0</v>
+        <v>0.96097852082959834</v>
       </c>
       <c r="BG46" s="0">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="BM46" s="0">
-        <v>0</v>
+        <v>0.55075683639332318</v>
       </c>
       <c r="BN46" s="0">
         <v>0</v>
@@ -9658,22 +9658,22 @@
         <v>0</v>
       </c>
       <c r="S47" s="0">
-        <v>0</v>
+        <v>0.57351729624365866</v>
       </c>
       <c r="T47" s="0">
         <v>0</v>
       </c>
       <c r="U47" s="0">
-        <v>0</v>
+        <v>0.85951016791266754</v>
       </c>
       <c r="V47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" s="0">
-        <v>1</v>
+        <v>0.89476181646595743</v>
       </c>
       <c r="X47" s="0">
-        <v>0</v>
+        <v>0.52925557097524367</v>
       </c>
       <c r="Y47" s="0">
         <v>0</v>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="AX47" s="0">
-        <v>0</v>
+        <v>0.71403649215722687</v>
       </c>
       <c r="AY47" s="0">
         <v>0</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="BP47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>0</v>
+        <v>0.72629590881244943</v>
       </c>
       <c r="O48" s="0">
         <v>0</v>
@@ -9909,13 +9909,13 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI48" s="0">
         <v>0</v>
       </c>
       <c r="AJ48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="0">
         <v>0</v>
@@ -9984,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="BG48" s="0">
-        <v>0</v>
+        <v>0.91477585284354168</v>
       </c>
       <c r="BH48" s="0">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="BP48" s="0">
-        <v>0</v>
+        <v>0.99369965776871561</v>
       </c>
     </row>
     <row r="49">
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="0">
-        <v>0</v>
+        <v>0.78409089752647598</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>0</v>
+        <v>0.79061062843041774</v>
       </c>
       <c r="Z49" s="0">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="0">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="AI49" s="0">
-        <v>0</v>
+        <v>0.93438941217991478</v>
       </c>
       <c r="AJ49" s="0">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="AL49" s="0">
-        <v>0</v>
+        <v>0.65892938436894422</v>
       </c>
       <c r="AM49" s="0">
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>0</v>
+        <v>0.62275874863835567</v>
       </c>
       <c r="AO49" s="0">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="BE49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF49" s="0">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="BH49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI49" s="0">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="BO49" s="0">
-        <v>0</v>
+        <v>0.90472496254484991</v>
       </c>
       <c r="BP49" s="0">
         <v>0</v>
@@ -10231,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="0">
         <v>0</v>
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="0">
         <v>0</v>
@@ -10294,10 +10294,10 @@
         <v>0</v>
       </c>
       <c r="Y50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="0">
-        <v>0</v>
+        <v>0.7141835186961687</v>
       </c>
       <c r="AA50" s="0">
         <v>0</v>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="AE50" s="0">
-        <v>0</v>
+        <v>0.85619141031553658</v>
       </c>
       <c r="AF50" s="0">
         <v>0</v>
@@ -10327,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="0">
-        <v>1</v>
+        <v>0.93462319682772044</v>
       </c>
       <c r="AK50" s="0">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="AT50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU50" s="0">
-        <v>0</v>
+        <v>0.66259855075840102</v>
       </c>
       <c r="AV50" s="0">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="BE50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF50" s="0">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>0</v>
+        <v>0.63292237656309713</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="BK50" s="0">
-        <v>0</v>
+        <v>0.59606120567357479</v>
       </c>
       <c r="BL50" s="0">
         <v>0</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0</v>
+        <v>0.98100799277227846</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="E51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="0">
         <v>0</v>
       </c>
       <c r="G51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="0">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="0">
         <v>0</v>
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="T51" s="0">
-        <v>0</v>
+        <v>0.78787244405374657</v>
       </c>
       <c r="U51" s="0">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10629,12 +10629,12 @@
         <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>0</v>
+        <v>0.64517113787898839</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0</v>
+        <v>0.60935254108427206</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -10655,13 +10655,13 @@
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>0</v>
+        <v>0.73023161548545934</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="0">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="0">
-        <v>0</v>
+        <v>0.70186570627608003</v>
       </c>
       <c r="T52" s="0">
         <v>0</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="0">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>0</v>
+        <v>0.62363164426429174</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="0">
         <v>0</v>
@@ -10766,10 +10766,10 @@
         <v>0</v>
       </c>
       <c r="AS52" s="0">
-        <v>0</v>
+        <v>0.83971622918673483</v>
       </c>
       <c r="AT52" s="0">
-        <v>0</v>
+        <v>0.98482829200200261</v>
       </c>
       <c r="AU52" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="0">
-        <v>0</v>
+        <v>0.94894427696226713</v>
       </c>
       <c r="G53" s="0">
         <v>0</v>
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="0">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="AG53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="0">
         <v>0</v>
@@ -10999,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.79908329906492903</v>
       </c>
       <c r="BC53" s="0">
-        <v>0</v>
+        <v>0.81203461937473898</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL53" s="0">
         <v>0</v>
@@ -11061,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="0">
         <v>0</v>
@@ -11076,22 +11076,22 @@
         <v>0</v>
       </c>
       <c r="K54" s="0">
-        <v>0</v>
+        <v>0.96794378491167521</v>
       </c>
       <c r="L54" s="0">
         <v>0</v>
       </c>
       <c r="M54" s="0">
-        <v>0</v>
+        <v>0.64758492193120376</v>
       </c>
       <c r="N54" s="0">
         <v>0</v>
       </c>
       <c r="O54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.60364779497896026</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="BP54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="0">
-        <v>0</v>
+        <v>0.94893471914689553</v>
       </c>
       <c r="M55" s="0">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>0</v>
+        <v>0.98989785735960889</v>
       </c>
       <c r="R55" s="0">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="AO55" s="0">
-        <v>0</v>
+        <v>0.91251874162281488</v>
       </c>
       <c r="AP55" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0</v>
+        <v>0.63963318720283402</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11438,13 +11438,13 @@
         <v>0</v>
       </c>
       <c r="BK55" s="0">
-        <v>0</v>
+        <v>0.58148587224526516</v>
       </c>
       <c r="BL55" s="0">
-        <v>0</v>
+        <v>0.61291277447454995</v>
       </c>
       <c r="BM55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN55" s="0">
         <v>0</v>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="0">
-        <v>0</v>
+        <v>0.54461896639768526</v>
       </c>
       <c r="I56" s="0">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="0">
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="AH56" s="0">
-        <v>0</v>
+        <v>0.6598351122856585</v>
       </c>
       <c r="AI56" s="0">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="0">
         <v>0</v>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="AT56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.81655355333348512</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="0">
-        <v>0</v>
+        <v>0.55361182422771416</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -11703,10 +11703,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="0">
-        <v>0</v>
+        <v>0.71416469932074522</v>
       </c>
       <c r="AD57" s="0">
         <v>0</v>
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="0">
         <v>0</v>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="0">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="AR57" s="0">
-        <v>0</v>
+        <v>0.73960254458358488</v>
       </c>
       <c r="AS57" s="0">
         <v>0</v>
@@ -11808,10 +11808,10 @@
         <v>0</v>
       </c>
       <c r="AW57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0</v>
+        <v>0.53835872695112874</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="BJ57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK57" s="0">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="0">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="0">
         <v>0</v>
@@ -11984,10 +11984,10 @@
         <v>0</v>
       </c>
       <c r="AM58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="0">
         <v>0</v>
@@ -11999,13 +11999,13 @@
         <v>0</v>
       </c>
       <c r="AR58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS58" s="0">
         <v>0</v>
       </c>
       <c r="AT58" s="0">
-        <v>0</v>
+        <v>0.72488916665348158</v>
       </c>
       <c r="AU58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.50883059084369964</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12044,10 +12044,10 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.72317762756089654</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.80528334611599495</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="0">
-        <v>0</v>
+        <v>0.9223444695591605</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="0">
         <v>0</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="0">
-        <v>0</v>
+        <v>0.66323746589519694</v>
       </c>
       <c r="Q59" s="0">
         <v>0</v>
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="AV59" s="0">
-        <v>0</v>
+        <v>0.59150298484170549</v>
       </c>
       <c r="AW59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0</v>
+        <v>0.71215891083941596</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.56490935998456404</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.98351135613209806</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12303,13 +12303,13 @@
         <v>0</v>
       </c>
       <c r="H60" s="0">
-        <v>0</v>
+        <v>0.83114324016930663</v>
       </c>
       <c r="I60" s="0">
         <v>0</v>
       </c>
       <c r="J60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="0">
         <v>0</v>
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="0">
-        <v>0</v>
+        <v>0.58714121081397375</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
@@ -12402,13 +12402,13 @@
         <v>0</v>
       </c>
       <c r="AO60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP60" s="0">
         <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>0</v>
+        <v>0.95271434998001081</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12426,10 +12426,10 @@
         <v>0</v>
       </c>
       <c r="AW60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX60" s="0">
-        <v>0</v>
+        <v>0.60247655936471123</v>
       </c>
       <c r="AY60" s="0">
         <v>0</v>
@@ -12453,10 +12453,10 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.87053698111233302</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="BL60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM60" s="0">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="BP60" s="0">
-        <v>0</v>
+        <v>0.78386896970062769</v>
       </c>
     </row>
     <row r="61">
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>0</v>
+        <v>0.79302046123372039</v>
       </c>
       <c r="H61" s="0">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="0">
         <v>0</v>
@@ -12551,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" s="0">
         <v>0</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="0">
         <v>0</v>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="0">
-        <v>0</v>
+        <v>0.75267331576082452</v>
       </c>
       <c r="AL61" s="0">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>0</v>
+        <v>0.76358718657395075</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.53785195321098822</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK62" s="0">
         <v>0</v>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="BE62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF62" s="0">
         <v>0</v>
@@ -12880,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.56175114081319188</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.80881060938940919</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA63" s="0">
         <v>0</v>
@@ -13020,10 +13020,10 @@
         <v>0</v>
       </c>
       <c r="AO63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="0">
         <v>0</v>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="AX63" s="0">
-        <v>0</v>
+        <v>0.56253422730564728</v>
       </c>
       <c r="AY63" s="0">
         <v>0</v>
@@ -13056,13 +13056,13 @@
         <v>0</v>
       </c>
       <c r="BA63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="0">
         <v>0</v>
       </c>
       <c r="BC63" s="0">
-        <v>0</v>
+        <v>0.94208164504232061</v>
       </c>
       <c r="BD63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.73389190644148683</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13092,10 +13092,10 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.51196281902269614</v>
       </c>
       <c r="BN63" s="0">
-        <v>0</v>
+        <v>0.99726060124088001</v>
       </c>
       <c r="BO63" s="0">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="0">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="0">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="0">
-        <v>0</v>
+        <v>0.66212043600927029</v>
       </c>
       <c r="AK64" s="0">
         <v>0</v>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="0">
         <v>0</v>
@@ -13268,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="BC64" s="0">
-        <v>0</v>
+        <v>0.64478970233008814</v>
       </c>
       <c r="BD64" s="0">
         <v>0</v>
@@ -13283,13 +13283,13 @@
         <v>0</v>
       </c>
       <c r="BH64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI64" s="0">
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.63350578487364617</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.84301660140411849</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="0">
-        <v>0</v>
+        <v>0.80859175277462136</v>
       </c>
       <c r="L65" s="0">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>1</v>
+        <v>0.72336209224883341</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="AP65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ65" s="0">
         <v>0</v>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="AT65" s="0">
-        <v>0</v>
+        <v>0.70081569195637994</v>
       </c>
       <c r="AU65" s="0">
         <v>0</v>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="BC65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.93367298497943008</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="0">
-        <v>0</v>
+        <v>0.87731696017190242</v>
       </c>
       <c r="N66" s="0">
         <v>0</v>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="0">
-        <v>0</v>
+        <v>0.67370499871735334</v>
       </c>
       <c r="S66" s="0">
         <v>0</v>
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
@@ -13704,13 +13704,13 @@
         <v>0</v>
       </c>
       <c r="BK66" s="0">
-        <v>0</v>
+        <v>0.86083571993942787</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.89714484046777021</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13719,12 +13719,12 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.6206860977440456</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="0">
         <v>0</v>
@@ -13808,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD67" s="0">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="0">
-        <v>0</v>
+        <v>0.69544887765127572</v>
       </c>
       <c r="AT67" s="0">
         <v>0</v>
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="AW67" s="0">
-        <v>0</v>
+        <v>0.75068349719780869</v>
       </c>
       <c r="AX67" s="0">
         <v>0</v>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>0</v>
+        <v>0.68121962660041291</v>
       </c>
       <c r="J68" s="0">
         <v>0</v>
@@ -14026,10 +14026,10 @@
         <v>0</v>
       </c>
       <c r="AG68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH68" s="0">
-        <v>0</v>
+        <v>0.70102150434585853</v>
       </c>
       <c r="AI68" s="0">
         <v>0</v>
@@ -14053,13 +14053,13 @@
         <v>0</v>
       </c>
       <c r="AP68" s="0">
-        <v>0</v>
+        <v>0.79634066356338351</v>
       </c>
       <c r="AQ68" s="0">
         <v>0</v>
       </c>
       <c r="AR68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS68" s="0">
         <v>0</v>
@@ -14068,10 +14068,10 @@
         <v>0</v>
       </c>
       <c r="AU68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV68" s="0">
-        <v>0</v>
+        <v>0.66979339605068922</v>
       </c>
       <c r="AW68" s="0">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>0</v>
+        <v>0.78992641880897896</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>
@@ -14089,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="BB68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC68" s="0">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>0</v>
+        <v>0.96197147284242124</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject37.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject37.xlsx
@@ -278,10 +278,10 @@
         <v>0</v>
       </c>
       <c r="AY1" s="0">
-        <v>0.79133499192640966</v>
+        <v>0.98100799277227846</v>
       </c>
       <c r="AZ1" s="0">
-        <v>0.51515027765975829</v>
+        <v>0.60935254108427206</v>
       </c>
       <c r="BA1" s="0">
         <v>0</v>
@@ -403,7 +403,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="0">
-        <v>0.65021569608101415</v>
+        <v>0.99889491068425218</v>
       </c>
       <c r="Y2" s="0">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>0.71090425795412071</v>
+        <v>0.87952289069647205</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
@@ -600,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>0.74067766668227986</v>
+        <v>0.78995708406664744</v>
       </c>
       <c r="V3" s="0">
-        <v>0.50788694301165904</v>
+        <v>0.95695139180798172</v>
       </c>
       <c r="W3" s="0">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="0">
-        <v>0.86012159072677152</v>
+        <v>0.9223444695591605</v>
       </c>
       <c r="BH3" s="0">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.54049024279763591</v>
+        <v>0.72271691930243698</v>
       </c>
       <c r="AB4" s="0">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="0">
-        <v>0.91854408644360697</v>
+        <v>0.92609362951465102</v>
       </c>
       <c r="AI4" s="0">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="0">
-        <v>0.98378699509266498</v>
+        <v>0.99599330126479091</v>
       </c>
       <c r="AG5" s="0">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="AD6" s="0">
-        <v>0.80807428399445913</v>
+        <v>0.89809512901822797</v>
       </c>
       <c r="AE6" s="0">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="0">
-        <v>0.83023505081825255</v>
+        <v>0.94894427696226713</v>
       </c>
       <c r="BB6" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0.65035942467808339</v>
+        <v>0.93741573282550417</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="0">
-        <v>0.70338701096039591</v>
+        <v>0.79302046123372039</v>
       </c>
       <c r="BJ7" s="0">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="0">
-        <v>0.90144159825626113</v>
+        <v>0.98866742043488387</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>0.77493018438338179</v>
+        <v>0.89218918946013315</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.80945914349313608</v>
+        <v>0.81491884148150961</v>
       </c>
       <c r="AC10" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0.6957010439078426</v>
+        <v>0.8533170113966343</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="BB11" s="0">
-        <v>0.93001503577989653</v>
+        <v>0.96794378491167521</v>
       </c>
       <c r="BC11" s="0">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="0">
-        <v>0.62397602413978204</v>
+        <v>0.80859175277462136</v>
       </c>
       <c r="BN11" s="0">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="0">
-        <v>0.57626598730876211</v>
+        <v>0.5890466313842182</v>
       </c>
       <c r="J12" s="0">
-        <v>0.80031371041953148</v>
+        <v>0.95180313349295487</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="0">
-        <v>0.67183446747830033</v>
+        <v>0.7079044096489886</v>
       </c>
       <c r="AJ12" s="0">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="0">
-        <v>0.63823088350153556</v>
+        <v>0.94893471914689553</v>
       </c>
       <c r="BD12" s="0">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="0">
-        <v>0.71599458836683338</v>
+        <v>0.75790312414866867</v>
       </c>
       <c r="C13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0.6275820668194878</v>
+        <v>0.81696582929235317</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="0">
-        <v>0.50640721622786811</v>
+        <v>0.52907748120223286</v>
       </c>
       <c r="V13" s="0">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="0">
-        <v>0.53525953508063273</v>
+        <v>0.8517583890775775</v>
       </c>
       <c r="AA13" s="0">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="0">
-        <v>0.56902914721682318</v>
+        <v>0.64758492193120376</v>
       </c>
       <c r="BC13" s="0">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AV14" s="0">
-        <v>0.67607888759966461</v>
+        <v>0.72629590881244943</v>
       </c>
       <c r="AW14" s="0">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="0">
-        <v>0.7803940299647476</v>
+        <v>0.94020839920002841</v>
       </c>
       <c r="S15" s="0">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="0">
-        <v>0.76735092435214391</v>
+        <v>0.87370362260992951</v>
       </c>
       <c r="F16" s="0">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="0">
-        <v>0.80998945051751825</v>
+        <v>0.96641854285614259</v>
       </c>
       <c r="AQ16" s="0">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>0.50151948829811555</v>
+        <v>0.98989785735960889</v>
       </c>
       <c r="BD17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0.8566475988909692</v>
       </c>
       <c r="T18" s="0">
-        <v>0.56875470455729837</v>
+        <v>0.71092829120980283</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="0">
-        <v>0.54721481466085775</v>
+        <v>0.67370499871735334</v>
       </c>
       <c r="BO18" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0.81396938199718738</v>
+        <v>0.8566475988909692</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="AY20" s="0">
-        <v>0.66001472512690196</v>
+        <v>0.78787244405374657</v>
       </c>
       <c r="AZ20" s="0">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0.52907748120223286</v>
       </c>
       <c r="N21" s="0">
-        <v>0.83180837671115704</v>
+        <v>0.850780087249428</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0.66714012586832805</v>
+        <v>0.95980434877899001</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="0">
-        <v>0.95164203460908436</v>
+        <v>0.95273110332827771</v>
       </c>
       <c r="AC21" s="0">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="0">
-        <v>0.75021928284243422</v>
+        <v>0.8926583479135014</v>
       </c>
       <c r="AK21" s="0">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="AU21" s="0">
-        <v>0.66435767501048448</v>
+        <v>0.85951016791266754</v>
       </c>
       <c r="AV21" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.54619133012551779</v>
+        <v>0.61069274801928164</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>0.77462765285549873</v>
+        <v>0.89476181646595743</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="0">
-        <v>0.59016807107829661</v>
+        <v>0.89949725510222434</v>
       </c>
       <c r="AB24" s="0">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="0">
-        <v>0.68106155363258325</v>
+        <v>0.85615134769784951</v>
       </c>
       <c r="L25" s="0">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>0.56991289566804659</v>
+        <v>0.57534797062848986</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
@@ -5335,13 +5335,13 @@
         <v>0</v>
       </c>
       <c r="T26" s="0">
-        <v>0.82594439129733366</v>
+        <v>0.95866711372495905</v>
       </c>
       <c r="U26" s="0">
         <v>0</v>
       </c>
       <c r="V26" s="0">
-        <v>0.63609202947092869</v>
+        <v>0.84035312651736704</v>
       </c>
       <c r="W26" s="0">
         <v>0</v>
@@ -5368,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="AE26" s="0">
-        <v>0.65057221253778086</v>
+        <v>0.69790161714338539</v>
       </c>
       <c r="AF26" s="0">
         <v>0</v>
       </c>
       <c r="AG26" s="0">
-        <v>0.61110574690663411</v>
+        <v>0.94690915404317733</v>
       </c>
       <c r="AH26" s="0">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>0.51464714047254967</v>
+        <v>0.96988331952710338</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>0.58844396740769611</v>
+        <v>0.72336209224883341</v>
       </c>
       <c r="BN27" s="0">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="0">
-        <v>0.50447960498304023</v>
+        <v>0.74423908131630756</v>
       </c>
       <c r="F28" s="0">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="0">
-        <v>0.5629537349408229</v>
+        <v>0.58571292788945506</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="0">
-        <v>0.6053785657354549</v>
+        <v>0.63416178958682323</v>
       </c>
       <c r="H29" s="0">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="0">
-        <v>0.53932308568987697</v>
+        <v>0.65675635802740162</v>
       </c>
       <c r="R29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.76861321477454703</v>
+        <v>0.94586637267422513</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="0">
-        <v>0.60207411012137591</v>
+        <v>0.71416469932074522</v>
       </c>
       <c r="BF29" s="0">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>0.68535363462874233</v>
+        <v>0.99527958205171063</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AX31" s="0">
-        <v>0.61111965050749306</v>
+        <v>0.85619141031553658</v>
       </c>
       <c r="AY31" s="0">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>0.76736916871103622</v>
+        <v>0.87487384376903199</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="0">
-        <v>0.959996154898765</v>
+        <v>0.97560575494342705</v>
       </c>
       <c r="T32" s="0">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="0">
-        <v>0.81884495906143806</v>
+        <v>0.98779170890950807</v>
       </c>
       <c r="AK32" s="0">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="AN32" s="0">
-        <v>0.62499468687856241</v>
+        <v>0.85446407120367129</v>
       </c>
       <c r="AO32" s="0">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.59485252387707366</v>
+        <v>0.95029014668267497</v>
       </c>
       <c r="R33" s="0">
         <v>0</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="BD34" s="0">
-        <v>0.64856203640512766</v>
+        <v>0.6598351122856585</v>
       </c>
       <c r="BE34" s="0">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="0">
-        <v>0.77991933101663014</v>
+        <v>0.97146059160435971</v>
       </c>
       <c r="AB35" s="0">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="AW35" s="0">
-        <v>0.62043412535901776</v>
+        <v>0.93438941217991478</v>
       </c>
       <c r="AX35" s="0">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>0.83453237212162712</v>
+        <v>0.93569759700572819</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="AX36" s="0">
-        <v>0.68411407960405868</v>
+        <v>0.93462319682772044</v>
       </c>
       <c r="AY36" s="0">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.55044504790534388</v>
+        <v>0.95276442407505357</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.84547015962020899</v>
+        <v>0.94684249892323802</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="0">
-        <v>0.5181268815762663</v>
+        <v>0.75430156206977128</v>
       </c>
       <c r="I39" s="0">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0.62246529726656041</v>
+        <v>0.77042656775423524</v>
       </c>
       <c r="R39" s="0">
         <v>0</v>
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="0">
-        <v>0.69466009354175939</v>
+        <v>0.99394970621820122</v>
       </c>
       <c r="AB39" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>0.50432221585173564</v>
+        <v>0.62275874863835567</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="AD41" s="0">
-        <v>0.82398065237734275</v>
+        <v>0.88606820189602264</v>
       </c>
       <c r="AE41" s="0">
         <v>0</v>
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="BC41" s="0">
-        <v>0.78542549467278722</v>
+        <v>0.91251874162281488</v>
       </c>
       <c r="BD41" s="0">
         <v>0</v>
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="AL42" s="0">
-        <v>0.57887888512312602</v>
+        <v>0.9497874598213667</v>
       </c>
       <c r="AM42" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.6211197200875429</v>
+        <v>0.79358415958761186</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>0.61695731703464307</v>
+        <v>0.95271434998001081</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="0">
-        <v>0.78148526567719023</v>
+        <v>0.92255691340705981</v>
       </c>
       <c r="K44" s="0">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>0.51521631092724762</v>
+        <v>0.51579298917022398</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="0">
-        <v>0.6155577840013795</v>
+        <v>0.83243935132915969</v>
       </c>
       <c r="I46" s="0">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>0.58271043733095595</v>
+        <v>0.98482829200200261</v>
       </c>
       <c r="BA46" s="0">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="BM46" s="0">
-        <v>0.55075683639332318</v>
+        <v>0.70081569195637994</v>
       </c>
       <c r="BN46" s="0">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="0">
-        <v>0.57351729624365866</v>
+        <v>0.92267873045500193</v>
       </c>
       <c r="T47" s="0">
         <v>0</v>
@@ -9673,7 +9673,7 @@
         <v>0.89476181646595743</v>
       </c>
       <c r="X47" s="0">
-        <v>0.52925557097524367</v>
+        <v>0.56822626670333598</v>
       </c>
       <c r="Y47" s="0">
         <v>0</v>
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="0">
-        <v>0.78409089752647598</v>
+        <v>0.89342998409985663</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>0.79061062843041774</v>
+        <v>0.96240729256836643</v>
       </c>
       <c r="Z49" s="0">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="AL49" s="0">
-        <v>0.65892938436894422</v>
+        <v>0.73155056848378541</v>
       </c>
       <c r="AM49" s="0">
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="0">
-        <v>0.7141835186961687</v>
+        <v>0.83717592336834712</v>
       </c>
       <c r="AA50" s="0">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="AU50" s="0">
-        <v>0.66259855075840102</v>
+        <v>0.71403649215722687</v>
       </c>
       <c r="AV50" s="0">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>0.64517113787898839</v>
+        <v>0.78992641880897896</v>
       </c>
     </row>
     <row r="52">
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>0.73023161548545934</v>
+        <v>0.79936663304003064</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="0">
-        <v>0.70186570627608003</v>
+        <v>0.7811934422113922</v>
       </c>
       <c r="T52" s="0">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>0.62363164426429174</v>
+        <v>0.90126574553090744</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="0">
-        <v>0.83971622918673483</v>
+        <v>0.99589378122277117</v>
       </c>
       <c r="AT52" s="0">
         <v>0.98482829200200261</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.60364779497896026</v>
+        <v>0.79908329906492903</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.63963318720283402</v>
+        <v>0.81203461937473898</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11438,10 +11438,10 @@
         <v>0</v>
       </c>
       <c r="BK55" s="0">
-        <v>0.58148587224526516</v>
+        <v>0.94208164504232061</v>
       </c>
       <c r="BL55" s="0">
-        <v>0.61291277447454995</v>
+        <v>0.64478970233008814</v>
       </c>
       <c r="BM55" s="0">
         <v>0</v>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="0">
-        <v>0.54461896639768526</v>
+        <v>0.74073456049553021</v>
       </c>
       <c r="I56" s="0">
         <v>0</v>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="0">
-        <v>0.55361182422771416</v>
+        <v>0.8802620143771489</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="AR57" s="0">
-        <v>0.73960254458358488</v>
+        <v>0.81177606376313816</v>
       </c>
       <c r="AS57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.53835872695112874</v>
+        <v>0.71215891083941596</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="AT58" s="0">
-        <v>0.72488916665348158</v>
+        <v>0.96097852082959834</v>
       </c>
       <c r="AU58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.50883059084369964</v>
+        <v>0.81655355333348512</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0.72317762756089654</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.80528334611599495</v>
+        <v>0.87053698111233302</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="0">
-        <v>0.66323746589519694</v>
+        <v>0.75885549024834387</v>
       </c>
       <c r="Q59" s="0">
         <v>0</v>
@@ -12217,7 +12217,7 @@
         <v>0</v>
       </c>
       <c r="AV59" s="0">
-        <v>0.59150298484170549</v>
+        <v>0.91477585284354168</v>
       </c>
       <c r="AW59" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0.71215891083941596</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.56490935998456404</v>
+        <v>0.72317762756089654</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12303,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="0">
-        <v>0.83114324016930663</v>
+        <v>0.95596229295260127</v>
       </c>
       <c r="I60" s="0">
         <v>0</v>
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="0">
-        <v>0.58714121081397375</v>
+        <v>0.61346668644432367</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="AX60" s="0">
-        <v>0.60247655936471123</v>
+        <v>0.63292237656309713</v>
       </c>
       <c r="AY60" s="0">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="BP60" s="0">
-        <v>0.78386896970062769</v>
+        <v>0.96197147284242124</v>
       </c>
     </row>
     <row r="61">
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="0">
-        <v>0.75267331576082452</v>
+        <v>0.90990936217959906</v>
       </c>
       <c r="AL61" s="0">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>0.76358718657395075</v>
+        <v>0.81980113646151098</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.53785195321098822</v>
+        <v>0.98351135613209806</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.56175114081319188</v>
+        <v>0.73389190644148683</v>
       </c>
       <c r="BL62" s="0">
         <v>0.80881060938940919</v>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="AX63" s="0">
-        <v>0.56253422730564728</v>
+        <v>0.59606120567357479</v>
       </c>
       <c r="AY63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.51196281902269614</v>
+        <v>0.93367298497943008</v>
       </c>
       <c r="BN63" s="0">
         <v>0.99726060124088001</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="0">
-        <v>0.66212043600927029</v>
+        <v>0.82184063916314121</v>
       </c>
       <c r="AK64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.63350578487364617</v>
+        <v>0.80881060938940919</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.84301660140411849</v>
+        <v>0.89714484046777021</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="0">
-        <v>0.87731696017190242</v>
+        <v>0.99136761734219359</v>
       </c>
       <c r="N66" s="0">
         <v>0</v>
@@ -13704,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="BK66" s="0">
-        <v>0.86083571993942787</v>
+        <v>0.99726060124088001</v>
       </c>
       <c r="BL66" s="0">
         <v>0.89714484046777021</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.6206860977440456</v>
+        <v>0.97308299850772439</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="0">
-        <v>0.69544887765127572</v>
+        <v>0.80840348604343326</v>
       </c>
       <c r="AT67" s="0">
         <v>0</v>
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="AW67" s="0">
-        <v>0.75068349719780869</v>
+        <v>0.90472496254484991</v>
       </c>
       <c r="AX67" s="0">
         <v>0</v>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>0.68121962660041291</v>
+        <v>0.76845952830329023</v>
       </c>
       <c r="J68" s="0">
         <v>0</v>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="AH68" s="0">
-        <v>0.70102150434585853</v>
+        <v>0.88666331915756835</v>
       </c>
       <c r="AI68" s="0">
         <v>0</v>
@@ -14053,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="0">
-        <v>0.79634066356338351</v>
+        <v>0.97406482570285891</v>
       </c>
       <c r="AQ68" s="0">
         <v>0</v>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="AV68" s="0">
-        <v>0.66979339605068922</v>
+        <v>0.99369965776871561</v>
       </c>
       <c r="AW68" s="0">
         <v>0</v>
